--- a/运营出入金/产品费用出金/宁波-托管户入金.xlsx
+++ b/运营出入金/产品费用出金/宁波-托管户入金.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="744">
   <si>
     <t>管理费</t>
   </si>
@@ -1117,6 +1117,9 @@
     <t>00323</t>
   </si>
   <si>
+    <t>00133</t>
+  </si>
+  <si>
     <t>00135</t>
   </si>
   <si>
@@ -1438,6 +1441,9 @@
     <t>招商证券股份有限公司</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>中信证券股份有限公司</t>
   </si>
   <si>
@@ -1447,7 +1453,7 @@
     <t>中国中金财富证券有限公司</t>
   </si>
   <si>
-    <t>银河证券股份有限公司</t>
+    <t>中国银河证券股份有限公司</t>
   </si>
   <si>
     <t>中信建投证券股份有限公司</t>
@@ -1456,7 +1462,7 @@
     <t>浙商证券股份有限公司</t>
   </si>
   <si>
-    <t>申万宏源股份有限公司</t>
+    <t>申万宏源证券有限公司</t>
   </si>
   <si>
     <t>国信证券股份有限公司</t>
@@ -1543,6 +1549,9 @@
     <t>0932466179</t>
   </si>
   <si>
+    <t>20900109</t>
+  </si>
+  <si>
     <t>1560021263</t>
   </si>
   <si>
@@ -1618,6 +1627,9 @@
     <t>20824765</t>
   </si>
   <si>
+    <t>12112201</t>
+  </si>
+  <si>
     <t>17038553</t>
   </si>
   <si>
@@ -1645,6 +1657,9 @@
     <t>109126007836</t>
   </si>
   <si>
+    <t>5590000045</t>
+  </si>
+  <si>
     <t>900200026128</t>
   </si>
   <si>
@@ -1741,6 +1756,12 @@
     <t>18087988</t>
   </si>
   <si>
+    <t>27729423</t>
+  </si>
+  <si>
+    <t>0932466201</t>
+  </si>
+  <si>
     <t>76055198</t>
   </si>
   <si>
@@ -1756,7 +1777,7 @@
     <t>96606533</t>
   </si>
   <si>
-    <t>33100070</t>
+    <t>0978887711</t>
   </si>
   <si>
     <t>7200000950</t>
@@ -1822,6 +1843,9 @@
     <t>109065005760</t>
   </si>
   <si>
+    <t>5590000001</t>
+  </si>
+  <si>
     <t>5590000016</t>
   </si>
   <si>
@@ -1849,9 +1873,24 @@
     <t>5590000029</t>
   </si>
   <si>
+    <t>5590000035</t>
+  </si>
+  <si>
     <t>5590000037</t>
   </si>
   <si>
+    <t>41900046116</t>
+  </si>
+  <si>
+    <t>78050000</t>
+  </si>
+  <si>
+    <t>11136588</t>
+  </si>
+  <si>
+    <t>30063608</t>
+  </si>
+  <si>
     <t>0932466160</t>
   </si>
   <si>
@@ -1867,16 +1906,25 @@
     <t>410800012336</t>
   </si>
   <si>
+    <t>5590000039</t>
+  </si>
+  <si>
     <t>416600006733</t>
   </si>
   <si>
+    <t>73000001108</t>
+  </si>
+  <si>
+    <t>15047098</t>
+  </si>
+  <si>
     <t>34941695</t>
   </si>
   <si>
     <t>010000068687</t>
   </si>
   <si>
-    <t>0181039218</t>
+    <t>906000004897</t>
   </si>
   <si>
     <t>0181039219</t>
@@ -1885,6 +1933,9 @@
     <t>0932466175</t>
   </si>
   <si>
+    <t>1000208168</t>
+  </si>
+  <si>
     <t>1809000306</t>
   </si>
   <si>
@@ -1909,12 +1960,21 @@
     <t>0932466140</t>
   </si>
   <si>
+    <t>34941691</t>
+  </si>
+  <si>
     <t>0932466127</t>
   </si>
   <si>
     <t>56618673</t>
   </si>
   <si>
+    <t>1700011713</t>
+  </si>
+  <si>
+    <t>62002105</t>
+  </si>
+  <si>
     <t>0932466155</t>
   </si>
   <si>
@@ -1954,33 +2014,30 @@
     <t>33020000161666</t>
   </si>
   <si>
-    <t>无</t>
-  </si>
-  <si>
     <t>中信期货有限公司</t>
   </si>
   <si>
     <t>南华期货股份有限公司</t>
   </si>
   <si>
+    <t>国投安信期货有限公司</t>
+  </si>
+  <si>
+    <t>国泰君安期货有限公司</t>
+  </si>
+  <si>
+    <t>银河期货有限公司</t>
+  </si>
+  <si>
+    <t>宏源期货有限公司</t>
+  </si>
+  <si>
+    <t>海通期货股份有限公司</t>
+  </si>
+  <si>
     <t>浙商期货有限公司</t>
   </si>
   <si>
-    <t>国投安信期货有限公司</t>
-  </si>
-  <si>
-    <t>国泰君安期货有限公司</t>
-  </si>
-  <si>
-    <t>银河期货有限公司</t>
-  </si>
-  <si>
-    <t>宏源期货有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海通期货股份有限公司 </t>
-  </si>
-  <si>
     <t>光大期货有限公司</t>
   </si>
   <si>
@@ -1996,6 +2053,9 @@
     <t>建信期货有限公司</t>
   </si>
   <si>
+    <t>中信建投期货有限公司</t>
+  </si>
+  <si>
     <t>招商期货有限公司</t>
   </si>
   <si>
@@ -2005,7 +2065,7 @@
     <t>中大期货有限公司</t>
   </si>
   <si>
-    <t>海通期货股份有限公司</t>
+    <t>102801921</t>
   </si>
   <si>
     <t>18600011</t>
@@ -2014,6 +2074,33 @@
     <t>102802903</t>
   </si>
   <si>
+    <t>8001002048</t>
+  </si>
+  <si>
+    <t>80003501</t>
+  </si>
+  <si>
+    <t>858920</t>
+  </si>
+  <si>
+    <t>900705688</t>
+  </si>
+  <si>
+    <t>8001002217</t>
+  </si>
+  <si>
+    <t>80009637</t>
+  </si>
+  <si>
+    <t>8001002216</t>
+  </si>
+  <si>
+    <t>8001002215</t>
+  </si>
+  <si>
+    <t>85012562</t>
+  </si>
+  <si>
     <t>22080086</t>
   </si>
   <si>
@@ -2026,12 +2113,27 @@
     <t>80009613</t>
   </si>
   <si>
+    <t>257188989</t>
+  </si>
+  <si>
+    <t>102802984</t>
+  </si>
+  <si>
     <t>889810061</t>
   </si>
   <si>
+    <t>889810062</t>
+  </si>
+  <si>
+    <t>99600150</t>
+  </si>
+  <si>
     <t>8001001977</t>
   </si>
   <si>
+    <t>100811521</t>
+  </si>
+  <si>
     <t>11230036</t>
   </si>
   <si>
@@ -2050,28 +2152,100 @@
     <t>8010801518</t>
   </si>
   <si>
+    <t>10955207</t>
+  </si>
+  <si>
+    <t>101600552</t>
+  </si>
+  <si>
+    <t>120302829</t>
+  </si>
+  <si>
+    <t>102802669</t>
+  </si>
+  <si>
+    <t>102802985</t>
+  </si>
+  <si>
+    <t>22080103</t>
+  </si>
+  <si>
     <t>22080105</t>
   </si>
   <si>
     <t>22080025</t>
   </si>
   <si>
+    <t>22080028</t>
+  </si>
+  <si>
+    <t>22080052</t>
+  </si>
+  <si>
     <t>22080055</t>
   </si>
   <si>
+    <t>8010801235</t>
+  </si>
+  <si>
     <t>22080062</t>
   </si>
   <si>
     <t>22080063</t>
   </si>
   <si>
+    <t>0930000625</t>
+  </si>
+  <si>
+    <t>22080071</t>
+  </si>
+  <si>
+    <t>22080072</t>
+  </si>
+  <si>
     <t>500285661</t>
   </si>
   <si>
+    <t>100815521</t>
+  </si>
+  <si>
+    <t>81590067</t>
+  </si>
+  <si>
+    <t>22080085</t>
+  </si>
+  <si>
+    <t>22080076</t>
+  </si>
+  <si>
+    <t>100110520</t>
+  </si>
+  <si>
+    <t>100810521</t>
+  </si>
+  <si>
+    <t>102803000</t>
+  </si>
+  <si>
+    <t>150167</t>
+  </si>
+  <si>
     <t>150168</t>
   </si>
   <si>
+    <t>80003439</t>
+  </si>
+  <si>
     <t>85012561</t>
+  </si>
+  <si>
+    <t>81590065</t>
+  </si>
+  <si>
+    <t>8001002239</t>
+  </si>
+  <si>
+    <t>275508251</t>
   </si>
 </sst>
 </file>
@@ -2556,16 +2730,19 @@
         <v>252</v>
       </c>
       <c r="R2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="U2" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V2" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -2621,10 +2798,19 @@
         <v>253</v>
       </c>
       <c r="R3" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S3" t="s">
+        <v>475</v>
+      </c>
+      <c r="T3" t="s">
+        <v>475</v>
       </c>
       <c r="U3" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -2680,16 +2866,19 @@
         <v>254</v>
       </c>
       <c r="R4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="U4" t="s">
-        <v>647</v>
+        <v>666</v>
+      </c>
+      <c r="V4" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -2745,16 +2934,19 @@
         <v>255</v>
       </c>
       <c r="R5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T5" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="U5" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V5" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -2810,16 +3002,19 @@
         <v>256</v>
       </c>
       <c r="R6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T6" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="U6" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V6" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -2875,19 +3070,19 @@
         <v>257</v>
       </c>
       <c r="R7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="U7" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="V7" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -2943,16 +3138,19 @@
         <v>258</v>
       </c>
       <c r="R8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S8" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T8" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="U8" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V8" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -3008,19 +3206,19 @@
         <v>259</v>
       </c>
       <c r="R9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T9" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="U9" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="V9" t="s">
-        <v>665</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -3076,16 +3274,19 @@
         <v>260</v>
       </c>
       <c r="R10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S10" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="T10" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="U10" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V10" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -3141,16 +3342,19 @@
         <v>261</v>
       </c>
       <c r="R11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S11" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="T11" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="U11" t="s">
-        <v>650</v>
+        <v>668</v>
+      </c>
+      <c r="V11" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -3206,16 +3410,19 @@
         <v>262</v>
       </c>
       <c r="R12" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S12" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="T12" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="U12" t="s">
-        <v>651</v>
+        <v>669</v>
+      </c>
+      <c r="V12" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -3271,16 +3478,19 @@
         <v>263</v>
       </c>
       <c r="R13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T13" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="U13" t="s">
-        <v>652</v>
+        <v>670</v>
+      </c>
+      <c r="V13" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -3330,16 +3540,19 @@
         <v>264</v>
       </c>
       <c r="R14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S14" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T14" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="U14" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V14" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -3395,16 +3608,19 @@
         <v>265</v>
       </c>
       <c r="R15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S15" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="T15" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="U15" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V15" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -3460,19 +3676,22 @@
         <v>266</v>
       </c>
       <c r="R16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S16" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="T16" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="U16" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>671</v>
+      </c>
+      <c r="V16" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -3519,19 +3738,22 @@
         <v>267</v>
       </c>
       <c r="R17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="S17" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T17" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="U17" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V17" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -3584,19 +3806,22 @@
         <v>268</v>
       </c>
       <c r="R18" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S18" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="T18" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="U18" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V18" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -3643,19 +3868,22 @@
         <v>269</v>
       </c>
       <c r="R19" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S19" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="T19" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="U19" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -3708,19 +3936,22 @@
         <v>270</v>
       </c>
       <c r="R20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T20" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="U20" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -3773,16 +4004,22 @@
         <v>271</v>
       </c>
       <c r="R21" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S21" t="s">
-        <v>483</v>
+        <v>485</v>
+      </c>
+      <c r="T21" t="s">
+        <v>511</v>
       </c>
       <c r="U21" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V21" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -3835,13 +4072,22 @@
         <v>272</v>
       </c>
       <c r="R22" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S22" t="s">
+        <v>475</v>
+      </c>
+      <c r="T22" t="s">
+        <v>475</v>
       </c>
       <c r="U22" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V22" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -3894,19 +4140,22 @@
         <v>273</v>
       </c>
       <c r="R23" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S23" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="T23" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="U23" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V23" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -3953,19 +4202,22 @@
         <v>274</v>
       </c>
       <c r="R24" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S24" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="T24" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="U24" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V24" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -4018,19 +4270,22 @@
         <v>275</v>
       </c>
       <c r="R25" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S25" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T25" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="U25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V25" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -4077,19 +4332,22 @@
         <v>276</v>
       </c>
       <c r="R26" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S26" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T26" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="U26" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V26" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -4142,19 +4400,22 @@
         <v>277</v>
       </c>
       <c r="R27" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S27" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="T27" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="U27" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <v>668</v>
+      </c>
+      <c r="V27" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -4207,13 +4468,22 @@
         <v>278</v>
       </c>
       <c r="R28" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S28" t="s">
+        <v>475</v>
+      </c>
+      <c r="T28" t="s">
+        <v>475</v>
       </c>
       <c r="U28" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V28" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -4266,19 +4536,22 @@
         <v>279</v>
       </c>
       <c r="R29" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S29" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="T29" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="U29" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+        <v>669</v>
+      </c>
+      <c r="V29" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -4331,13 +4604,22 @@
         <v>280</v>
       </c>
       <c r="R30" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S30" t="s">
+        <v>475</v>
+      </c>
+      <c r="T30" t="s">
+        <v>475</v>
       </c>
       <c r="U30" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V30" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -4390,13 +4672,22 @@
         <v>281</v>
       </c>
       <c r="R31" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S31" t="s">
+        <v>475</v>
+      </c>
+      <c r="T31" t="s">
+        <v>475</v>
       </c>
       <c r="U31" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V31" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -4443,19 +4734,22 @@
         <v>282</v>
       </c>
       <c r="R32" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="S32" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T32" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="U32" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V32" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -4502,19 +4796,22 @@
         <v>283</v>
       </c>
       <c r="R33" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S33" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T33" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="U33" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V33" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -4567,19 +4864,22 @@
         <v>284</v>
       </c>
       <c r="R34" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S34" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="T34" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="U34" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>668</v>
+      </c>
+      <c r="V34" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -4626,13 +4926,22 @@
         <v>285</v>
       </c>
       <c r="R35" t="s">
-        <v>464</v>
+        <v>465</v>
+      </c>
+      <c r="S35" t="s">
+        <v>475</v>
+      </c>
+      <c r="T35" t="s">
+        <v>475</v>
       </c>
       <c r="U35" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V35" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -4685,19 +4994,22 @@
         <v>286</v>
       </c>
       <c r="R36" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S36" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="T36" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="U36" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+        <v>668</v>
+      </c>
+      <c r="V36" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -4744,19 +5056,22 @@
         <v>287</v>
       </c>
       <c r="R37" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="S37" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T37" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="U37" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V37" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -4803,19 +5118,22 @@
         <v>288</v>
       </c>
       <c r="R38" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S38" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T38" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="U38" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V38" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -4868,19 +5186,22 @@
         <v>289</v>
       </c>
       <c r="R39" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S39" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T39" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="U39" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V39" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,13 +5254,22 @@
         <v>290</v>
       </c>
       <c r="R40" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S40" t="s">
+        <v>475</v>
+      </c>
+      <c r="T40" t="s">
+        <v>475</v>
       </c>
       <c r="U40" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V40" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -4992,13 +5322,22 @@
         <v>291</v>
       </c>
       <c r="R41" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S41" t="s">
+        <v>475</v>
+      </c>
+      <c r="T41" t="s">
+        <v>475</v>
       </c>
       <c r="U41" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V41" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -5045,19 +5384,22 @@
         <v>292</v>
       </c>
       <c r="R42" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S42" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="T42" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="U42" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V42" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="1" t="s">
         <v>63</v>
       </c>
@@ -5110,19 +5452,22 @@
         <v>293</v>
       </c>
       <c r="R43" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S43" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T43" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="U43" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V43" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -5169,19 +5514,22 @@
         <v>294</v>
       </c>
       <c r="R44" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S44" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="T44" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="U44" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V44" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -5228,19 +5576,22 @@
         <v>295</v>
       </c>
       <c r="R45" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S45" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T45" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="U45" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+        <v>672</v>
+      </c>
+      <c r="V45" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -5293,13 +5644,22 @@
         <v>296</v>
       </c>
       <c r="R46" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S46" t="s">
+        <v>475</v>
+      </c>
+      <c r="T46" t="s">
+        <v>475</v>
       </c>
       <c r="U46" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V46" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="1" t="s">
         <v>67</v>
       </c>
@@ -5346,19 +5706,22 @@
         <v>297</v>
       </c>
       <c r="R47" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S47" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T47" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="U47" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V47" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="1" t="s">
         <v>68</v>
       </c>
@@ -5405,16 +5768,19 @@
         <v>298</v>
       </c>
       <c r="R48" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="S48" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="T48" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="U48" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V48" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -5464,16 +5830,19 @@
         <v>299</v>
       </c>
       <c r="R49" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S49" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="T49" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="U49" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V49" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -5529,19 +5898,19 @@
         <v>300</v>
       </c>
       <c r="R50" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S50" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T50" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="U50" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="V50" t="s">
-        <v>666</v>
+        <v>695</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -5591,16 +5960,19 @@
         <v>301</v>
       </c>
       <c r="R51" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S51" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="T51" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="U51" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V51" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -5650,10 +6022,19 @@
         <v>302</v>
       </c>
       <c r="R52" t="s">
-        <v>463</v>
+        <v>464</v>
+      </c>
+      <c r="S52" t="s">
+        <v>475</v>
+      </c>
+      <c r="T52" t="s">
+        <v>475</v>
       </c>
       <c r="U52" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V52" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -5709,19 +6090,19 @@
         <v>303</v>
       </c>
       <c r="R53" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S53" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T53" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="U53" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="V53" t="s">
-        <v>667</v>
+        <v>696</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -5771,16 +6152,19 @@
         <v>304</v>
       </c>
       <c r="R54" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="S54" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="T54" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="U54" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V54" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -5836,10 +6220,19 @@
         <v>305</v>
       </c>
       <c r="R55" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S55" t="s">
+        <v>475</v>
+      </c>
+      <c r="T55" t="s">
+        <v>475</v>
       </c>
       <c r="U55" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V55" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -5889,16 +6282,19 @@
         <v>306</v>
       </c>
       <c r="R56" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S56" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T56" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="U56" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V56" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -5948,10 +6344,19 @@
         <v>307</v>
       </c>
       <c r="R57" t="s">
-        <v>462</v>
+        <v>463</v>
+      </c>
+      <c r="S57" t="s">
+        <v>475</v>
+      </c>
+      <c r="T57" t="s">
+        <v>475</v>
       </c>
       <c r="U57" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V57" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -6007,16 +6412,19 @@
         <v>308</v>
       </c>
       <c r="R58" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S58" t="s">
-        <v>483</v>
+        <v>485</v>
+      </c>
+      <c r="T58" t="s">
+        <v>537</v>
       </c>
       <c r="U58" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="V58" t="s">
-        <v>668</v>
+        <v>697</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -6072,19 +6480,19 @@
         <v>309</v>
       </c>
       <c r="R59" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S59" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T59" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="U59" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="V59" t="s">
-        <v>669</v>
+        <v>698</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -6134,16 +6542,19 @@
         <v>310</v>
       </c>
       <c r="R60" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="S60" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="T60" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="U60" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V60" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -6193,16 +6604,19 @@
         <v>311</v>
       </c>
       <c r="R61" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S61" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="T61" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="U61" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V61" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -6258,16 +6672,19 @@
         <v>312</v>
       </c>
       <c r="R62" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S62" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="T62" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="U62" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V62" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -6323,16 +6740,19 @@
         <v>313</v>
       </c>
       <c r="R63" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S63" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T63" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="U63" t="s">
-        <v>656</v>
+        <v>675</v>
+      </c>
+      <c r="V63" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -6382,19 +6802,22 @@
         <v>314</v>
       </c>
       <c r="R64" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S64" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="T64" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="U64" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V64" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="1" t="s">
         <v>85</v>
       </c>
@@ -6447,19 +6870,22 @@
         <v>315</v>
       </c>
       <c r="R65" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S65" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T65" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="U65" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V65" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" s="1" t="s">
         <v>86</v>
       </c>
@@ -6506,19 +6932,22 @@
         <v>316</v>
       </c>
       <c r="R66" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S66" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="T66" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="U66" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V66" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" s="1" t="s">
         <v>87</v>
       </c>
@@ -6571,19 +7000,22 @@
         <v>317</v>
       </c>
       <c r="R67" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S67" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="T67" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="U67" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V67" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" s="1" t="s">
         <v>88</v>
       </c>
@@ -6636,16 +7068,22 @@
         <v>318</v>
       </c>
       <c r="R68" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S68" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="T68" t="s">
+        <v>547</v>
       </c>
       <c r="U68" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V68" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="1" t="s">
         <v>89</v>
       </c>
@@ -6692,19 +7130,22 @@
         <v>319</v>
       </c>
       <c r="R69" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S69" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="T69" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="U69" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V69" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="1" t="s">
         <v>90</v>
       </c>
@@ -6757,19 +7198,22 @@
         <v>320</v>
       </c>
       <c r="R70" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S70" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T70" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="U70" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V70" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="1" t="s">
         <v>91</v>
       </c>
@@ -6822,19 +7266,22 @@
         <v>321</v>
       </c>
       <c r="R71" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S71" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T71" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="U71" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V71" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="1" t="s">
         <v>92</v>
       </c>
@@ -6881,19 +7328,22 @@
         <v>322</v>
       </c>
       <c r="R72" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="S72" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="T72" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="U72" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V72" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="1" t="s">
         <v>93</v>
       </c>
@@ -6940,19 +7390,22 @@
         <v>323</v>
       </c>
       <c r="R73" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S73" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T73" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="U73" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21">
+        <v>666</v>
+      </c>
+      <c r="V73" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="1" t="s">
         <v>94</v>
       </c>
@@ -6999,19 +7452,22 @@
         <v>324</v>
       </c>
       <c r="R74" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="S74" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="T74" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="U74" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V74" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="1" t="s">
         <v>95</v>
       </c>
@@ -7064,13 +7520,22 @@
         <v>325</v>
       </c>
       <c r="R75" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S75" t="s">
+        <v>475</v>
+      </c>
+      <c r="T75" t="s">
+        <v>475</v>
       </c>
       <c r="U75" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V75" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="1" t="s">
         <v>96</v>
       </c>
@@ -7123,13 +7588,22 @@
         <v>326</v>
       </c>
       <c r="R76" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S76" t="s">
+        <v>475</v>
+      </c>
+      <c r="T76" t="s">
+        <v>475</v>
       </c>
       <c r="U76" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V76" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="1" t="s">
         <v>97</v>
       </c>
@@ -7182,13 +7656,22 @@
         <v>327</v>
       </c>
       <c r="R77" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S77" t="s">
+        <v>475</v>
+      </c>
+      <c r="T77" t="s">
+        <v>475</v>
       </c>
       <c r="U77" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V77" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" s="1" t="s">
         <v>98</v>
       </c>
@@ -7235,19 +7718,22 @@
         <v>328</v>
       </c>
       <c r="R78" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="S78" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="T78" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="U78" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V78" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="1" t="s">
         <v>99</v>
       </c>
@@ -7300,19 +7786,22 @@
         <v>329</v>
       </c>
       <c r="R79" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S79" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T79" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="U79" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V79" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" s="1" t="s">
         <v>100</v>
       </c>
@@ -7359,10 +7848,19 @@
         <v>330</v>
       </c>
       <c r="R80" t="s">
-        <v>463</v>
+        <v>464</v>
+      </c>
+      <c r="S80" t="s">
+        <v>475</v>
+      </c>
+      <c r="T80" t="s">
+        <v>475</v>
       </c>
       <c r="U80" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V80" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -7418,16 +7916,19 @@
         <v>331</v>
       </c>
       <c r="R81" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S81" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T81" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="U81" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V81" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -7477,16 +7978,19 @@
         <v>332</v>
       </c>
       <c r="R82" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="S82" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T82" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="U82" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V82" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="83" spans="1:22">
@@ -7536,10 +8040,19 @@
         <v>333</v>
       </c>
       <c r="R83" t="s">
-        <v>462</v>
+        <v>463</v>
+      </c>
+      <c r="S83" t="s">
+        <v>475</v>
+      </c>
+      <c r="T83" t="s">
+        <v>475</v>
       </c>
       <c r="U83" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V83" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="84" spans="1:22">
@@ -7589,16 +8102,19 @@
         <v>334</v>
       </c>
       <c r="R84" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S84" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T84" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="U84" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V84" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="1:22">
@@ -7648,19 +8164,19 @@
         <v>335</v>
       </c>
       <c r="R85" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="S85" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="T85" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="U85" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="V85" t="s">
-        <v>670</v>
+        <v>701</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -7710,10 +8226,19 @@
         <v>336</v>
       </c>
       <c r="R86" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S86" t="s">
+        <v>475</v>
+      </c>
+      <c r="T86" t="s">
+        <v>475</v>
       </c>
       <c r="U86" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V86" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="87" spans="1:22">
@@ -7763,16 +8288,19 @@
         <v>337</v>
       </c>
       <c r="R87" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S87" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="T87" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="U87" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V87" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -7822,16 +8350,19 @@
         <v>338</v>
       </c>
       <c r="R88" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="S88" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="T88" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="U88" t="s">
-        <v>657</v>
+        <v>676</v>
+      </c>
+      <c r="V88" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -7881,10 +8412,19 @@
         <v>339</v>
       </c>
       <c r="R89" t="s">
-        <v>462</v>
+        <v>463</v>
+      </c>
+      <c r="S89" t="s">
+        <v>475</v>
+      </c>
+      <c r="T89" t="s">
+        <v>475</v>
       </c>
       <c r="U89" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V89" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -7934,16 +8474,19 @@
         <v>340</v>
       </c>
       <c r="R90" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S90" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T90" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="U90" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V90" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -7993,16 +8536,19 @@
         <v>341</v>
       </c>
       <c r="R91" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S91" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="T91" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="U91" t="s">
-        <v>658</v>
+        <v>677</v>
+      </c>
+      <c r="V91" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="92" spans="1:22">
@@ -8052,10 +8598,19 @@
         <v>342</v>
       </c>
       <c r="R92" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S92" t="s">
+        <v>475</v>
+      </c>
+      <c r="T92" t="s">
+        <v>475</v>
       </c>
       <c r="U92" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V92" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -8105,19 +8660,19 @@
         <v>343</v>
       </c>
       <c r="R93" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S93" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="T93" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="U93" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="V93" t="s">
-        <v>671</v>
+        <v>704</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -8167,10 +8722,19 @@
         <v>344</v>
       </c>
       <c r="R94" t="s">
-        <v>463</v>
+        <v>464</v>
+      </c>
+      <c r="S94" t="s">
+        <v>475</v>
+      </c>
+      <c r="T94" t="s">
+        <v>475</v>
       </c>
       <c r="U94" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V94" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -8226,16 +8790,19 @@
         <v>345</v>
       </c>
       <c r="R95" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S95" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T95" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="U95" t="s">
-        <v>656</v>
+        <v>675</v>
+      </c>
+      <c r="V95" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -8353,10 +8920,19 @@
         <v>347</v>
       </c>
       <c r="R97" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S97" t="s">
+        <v>475</v>
+      </c>
+      <c r="T97" t="s">
+        <v>475</v>
       </c>
       <c r="U97" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V97" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="98" spans="1:22">
@@ -8406,16 +8982,19 @@
         <v>348</v>
       </c>
       <c r="R98" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S98" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T98" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="U98" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V98" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="99" spans="1:22">
@@ -8465,10 +9044,19 @@
         <v>349</v>
       </c>
       <c r="R99" t="s">
-        <v>464</v>
+        <v>465</v>
+      </c>
+      <c r="S99" t="s">
+        <v>475</v>
+      </c>
+      <c r="T99" t="s">
+        <v>475</v>
       </c>
       <c r="U99" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V99" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -8580,16 +9168,19 @@
         <v>350</v>
       </c>
       <c r="R101" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S101" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="T101" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="U101" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V101" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -8639,16 +9230,19 @@
         <v>351</v>
       </c>
       <c r="R102" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S102" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="T102" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="U102" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V102" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="103" spans="1:22">
@@ -8698,10 +9292,19 @@
         <v>352</v>
       </c>
       <c r="R103" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S103" t="s">
+        <v>475</v>
+      </c>
+      <c r="T103" t="s">
+        <v>475</v>
       </c>
       <c r="U103" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V103" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -8751,10 +9354,19 @@
         <v>353</v>
       </c>
       <c r="R104" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S104" t="s">
+        <v>475</v>
+      </c>
+      <c r="T104" t="s">
+        <v>475</v>
       </c>
       <c r="U104" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V104" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="105" spans="1:22">
@@ -8804,16 +9416,19 @@
         <v>354</v>
       </c>
       <c r="R105" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S105" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="T105" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="U105" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V105" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="106" spans="1:22">
@@ -8863,16 +9478,19 @@
         <v>355</v>
       </c>
       <c r="R106" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S106" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="T106" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="U106" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V106" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="107" spans="1:22">
@@ -8922,16 +9540,19 @@
         <v>356</v>
       </c>
       <c r="R107" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S107" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T107" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="U107" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V107" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -8987,16 +9608,19 @@
         <v>357</v>
       </c>
       <c r="R108" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S108" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="T108" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="U108" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V108" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -9046,19 +9670,19 @@
         <v>358</v>
       </c>
       <c r="R109" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="S109" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T109" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="U109" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="V109" t="s">
-        <v>672</v>
+        <v>706</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -9108,19 +9732,19 @@
         <v>359</v>
       </c>
       <c r="R110" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="S110" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T110" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="U110" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="V110" t="s">
-        <v>673</v>
+        <v>707</v>
       </c>
     </row>
     <row r="111" spans="1:22">
@@ -9170,19 +9794,19 @@
         <v>360</v>
       </c>
       <c r="R111" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="S111" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T111" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="U111" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="V111" t="s">
-        <v>674</v>
+        <v>708</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -9232,19 +9856,19 @@
         <v>361</v>
       </c>
       <c r="R112" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="S112" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T112" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="U112" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="V112" t="s">
-        <v>675</v>
+        <v>709</v>
       </c>
     </row>
     <row r="113" spans="1:22">
@@ -9294,19 +9918,19 @@
         <v>362</v>
       </c>
       <c r="R113" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="S113" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T113" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="U113" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="V113" t="s">
-        <v>676</v>
+        <v>710</v>
       </c>
     </row>
     <row r="114" spans="1:22">
@@ -9362,19 +9986,19 @@
         <v>363</v>
       </c>
       <c r="R114" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S114" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T114" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="U114" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="V114" t="s">
-        <v>677</v>
+        <v>711</v>
       </c>
     </row>
     <row r="115" spans="1:22">
@@ -9424,16 +10048,19 @@
         <v>364</v>
       </c>
       <c r="R115" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S115" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="T115" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="U115" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V115" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="116" spans="1:22">
@@ -9483,10 +10110,19 @@
         <v>365</v>
       </c>
       <c r="R116" t="s">
-        <v>470</v>
+        <v>471</v>
+      </c>
+      <c r="S116" t="s">
+        <v>475</v>
+      </c>
+      <c r="T116" t="s">
+        <v>475</v>
       </c>
       <c r="U116" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V116" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="117" spans="1:22">
@@ -9536,10 +10172,19 @@
         <v>366</v>
       </c>
       <c r="R117" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S117" t="s">
+        <v>480</v>
+      </c>
+      <c r="T117" t="s">
+        <v>580</v>
       </c>
       <c r="U117" t="s">
-        <v>646</v>
+        <v>679</v>
+      </c>
+      <c r="V117" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="118" spans="1:22">
@@ -9592,22 +10237,22 @@
         <v>19234.53</v>
       </c>
       <c r="Q118" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="R118" t="s">
-        <v>346</v>
+        <v>462</v>
       </c>
       <c r="S118" t="s">
-        <v>346</v>
+        <v>474</v>
       </c>
       <c r="T118" t="s">
-        <v>346</v>
+        <v>581</v>
       </c>
       <c r="U118" t="s">
-        <v>346</v>
+        <v>475</v>
       </c>
       <c r="V118" t="s">
-        <v>346</v>
+        <v>475</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -9654,19 +10299,22 @@
         <v>11924.57</v>
       </c>
       <c r="Q119" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="R119" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="S119" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="T119" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="U119" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V119" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="120" spans="1:22">
@@ -9713,19 +10361,22 @@
         <v>43435.89</v>
       </c>
       <c r="Q120" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="R120" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S120" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="T120" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="U120" t="s">
-        <v>649</v>
+        <v>666</v>
+      </c>
+      <c r="V120" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -9772,13 +10423,22 @@
         <v>25898.92</v>
       </c>
       <c r="Q121" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R121" t="s">
-        <v>464</v>
+        <v>465</v>
+      </c>
+      <c r="S121" t="s">
+        <v>475</v>
+      </c>
+      <c r="T121" t="s">
+        <v>475</v>
       </c>
       <c r="U121" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V121" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -9887,19 +10547,22 @@
         <v>6241.09</v>
       </c>
       <c r="Q123" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="R123" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S123" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="T123" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="U123" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V123" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -10008,13 +10671,22 @@
         <v>19186.29</v>
       </c>
       <c r="Q125" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R125" t="s">
-        <v>470</v>
+        <v>471</v>
+      </c>
+      <c r="S125" t="s">
+        <v>475</v>
+      </c>
+      <c r="T125" t="s">
+        <v>475</v>
       </c>
       <c r="U125" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V125" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -10061,19 +10733,22 @@
         <v>0</v>
       </c>
       <c r="Q126" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="R126" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S126" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="T126" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="U126" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V126" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -10120,13 +10795,22 @@
         <v>15587.8</v>
       </c>
       <c r="Q127" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="R127" t="s">
-        <v>466</v>
+        <v>467</v>
+      </c>
+      <c r="S127" t="s">
+        <v>475</v>
+      </c>
+      <c r="T127" t="s">
+        <v>475</v>
       </c>
       <c r="U127" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V127" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -10179,16 +10863,25 @@
         <v>0</v>
       </c>
       <c r="Q128" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="R128" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S128" t="s">
+        <v>475</v>
+      </c>
+      <c r="T128" t="s">
+        <v>475</v>
       </c>
       <c r="U128" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V128" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22">
       <c r="A129" s="1" t="s">
         <v>149</v>
       </c>
@@ -10232,22 +10925,25 @@
         <v>11416.16</v>
       </c>
       <c r="Q129" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="R129" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S129" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="T129" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="U129" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V129" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22">
       <c r="A130" s="1" t="s">
         <v>150</v>
       </c>
@@ -10297,22 +10993,25 @@
         <v>0</v>
       </c>
       <c r="Q130" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="R130" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S130" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="T130" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="U130" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V130" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22">
       <c r="A131" s="1" t="s">
         <v>151</v>
       </c>
@@ -10356,22 +11055,25 @@
         <v>0</v>
       </c>
       <c r="Q131" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="R131" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S131" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T131" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="U131" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21">
+        <v>666</v>
+      </c>
+      <c r="V131" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22">
       <c r="A132" s="1" t="s">
         <v>152</v>
       </c>
@@ -10415,16 +11117,25 @@
         <v>7847.57</v>
       </c>
       <c r="Q132" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="R132" t="s">
-        <v>470</v>
+        <v>471</v>
+      </c>
+      <c r="S132" t="s">
+        <v>475</v>
+      </c>
+      <c r="T132" t="s">
+        <v>475</v>
       </c>
       <c r="U132" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V132" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22">
       <c r="A133" s="1" t="s">
         <v>153</v>
       </c>
@@ -10474,22 +11185,25 @@
         <v>201.3800000000001</v>
       </c>
       <c r="Q133" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="R133" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S133" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="T133" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="U133" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V133" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22">
       <c r="A134" s="1" t="s">
         <v>154</v>
       </c>
@@ -10533,16 +11247,25 @@
         <v>5029.77</v>
       </c>
       <c r="Q134" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="R134" t="s">
-        <v>464</v>
+        <v>465</v>
+      </c>
+      <c r="S134" t="s">
+        <v>475</v>
+      </c>
+      <c r="T134" t="s">
+        <v>475</v>
       </c>
       <c r="U134" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V134" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22">
       <c r="A135" s="1" t="s">
         <v>155</v>
       </c>
@@ -10586,22 +11309,25 @@
         <v>895.97</v>
       </c>
       <c r="Q135" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="R135" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S135" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T135" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="U135" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V135" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22">
       <c r="A136" s="1" t="s">
         <v>156</v>
       </c>
@@ -10645,16 +11371,25 @@
         <v>0</v>
       </c>
       <c r="Q136" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="R136" t="s">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="S136" t="s">
+        <v>475</v>
+      </c>
+      <c r="T136" t="s">
+        <v>475</v>
       </c>
       <c r="U136" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V136" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22">
       <c r="A137" s="1" t="s">
         <v>157</v>
       </c>
@@ -10698,16 +11433,25 @@
         <v>0</v>
       </c>
       <c r="Q137" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R137" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="S137" t="s">
+        <v>475</v>
+      </c>
+      <c r="T137" t="s">
+        <v>475</v>
       </c>
       <c r="U137" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V137" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22">
       <c r="A138" s="1" t="s">
         <v>158</v>
       </c>
@@ -10751,16 +11495,25 @@
         <v>0</v>
       </c>
       <c r="Q138" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="R138" t="s">
-        <v>464</v>
+        <v>465</v>
+      </c>
+      <c r="S138" t="s">
+        <v>475</v>
+      </c>
+      <c r="T138" t="s">
+        <v>475</v>
       </c>
       <c r="U138" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V138" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22">
       <c r="A139" s="1" t="s">
         <v>159</v>
       </c>
@@ -10810,22 +11563,25 @@
         <v>168556.97</v>
       </c>
       <c r="Q139" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="R139" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S139" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T139" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="U139" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V139" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22">
       <c r="A140" s="1" t="s">
         <v>160</v>
       </c>
@@ -10869,22 +11625,25 @@
         <v>4139758.47</v>
       </c>
       <c r="Q140" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="R140" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="S140" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T140" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="U140" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V140" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
@@ -10934,22 +11693,25 @@
         <v>0</v>
       </c>
       <c r="Q141" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="R141" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S141" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T141" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="U141" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V141" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22">
       <c r="A142" s="1" t="s">
         <v>162</v>
       </c>
@@ -10993,22 +11755,25 @@
         <v>34111143.81</v>
       </c>
       <c r="Q142" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="R142" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S142" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="T142" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="U142" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V142" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22">
       <c r="A143" s="1" t="s">
         <v>163</v>
       </c>
@@ -11052,22 +11817,25 @@
         <v>1483027.54</v>
       </c>
       <c r="Q143" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="R143" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S143" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="T143" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="U143" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V143" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22">
       <c r="A144" s="1" t="s">
         <v>164</v>
       </c>
@@ -11117,19 +11885,22 @@
         <v>0</v>
       </c>
       <c r="Q144" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R144" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S144" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T144" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="U144" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V144" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -11176,19 +11947,22 @@
         <v>251875.96</v>
       </c>
       <c r="Q145" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R145" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S145" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T145" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="U145" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V145" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="146" spans="1:22">
@@ -11235,16 +12009,22 @@
         <v>118595.84</v>
       </c>
       <c r="Q146" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R146" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="S146" t="s">
-        <v>483</v>
+        <v>485</v>
+      </c>
+      <c r="T146" t="s">
+        <v>475</v>
       </c>
       <c r="U146" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V146" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="147" spans="1:22">
@@ -11291,19 +12071,22 @@
         <v>76249277.08</v>
       </c>
       <c r="Q147" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R147" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="S147" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T147" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="U147" t="s">
-        <v>649</v>
+        <v>666</v>
+      </c>
+      <c r="V147" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="148" spans="1:22">
@@ -12466,19 +13249,22 @@
         <v>424465.03</v>
       </c>
       <c r="Q166" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R166" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S166" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T166" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="U166" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V166" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="167" spans="1:22">
@@ -12525,19 +13311,22 @@
         <v>489184.18</v>
       </c>
       <c r="Q167" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R167" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S167" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T167" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="U167" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V167" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="168" spans="1:22">
@@ -12584,19 +13373,22 @@
         <v>188629.11</v>
       </c>
       <c r="Q168" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="R168" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S168" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T168" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="U168" t="s">
-        <v>649</v>
+        <v>666</v>
+      </c>
+      <c r="V168" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="169" spans="1:22">
@@ -12643,19 +13435,22 @@
         <v>0</v>
       </c>
       <c r="Q169" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="R169" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S169" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T169" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="U169" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V169" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="170" spans="1:22">
@@ -12702,19 +13497,22 @@
         <v>1560144.57</v>
       </c>
       <c r="Q170" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="R170" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="S170" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T170" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="U170" t="s">
-        <v>649</v>
+        <v>673</v>
+      </c>
+      <c r="V170" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="171" spans="1:22">
@@ -12761,22 +13559,22 @@
         <v>1323346.59</v>
       </c>
       <c r="Q171" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="R171" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="S171" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T171" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="U171" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="V171" t="s">
-        <v>678</v>
+        <v>718</v>
       </c>
     </row>
     <row r="172" spans="1:22">
@@ -12823,19 +13621,22 @@
         <v>52997.39</v>
       </c>
       <c r="Q172" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R172" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S172" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="T172" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="U172" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V172" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="173" spans="1:22">
@@ -12882,19 +13683,22 @@
         <v>568821.11</v>
       </c>
       <c r="Q173" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="R173" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S173" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="T173" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="U173" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V173" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="174" spans="1:22">
@@ -12941,19 +13745,22 @@
         <v>35160.18</v>
       </c>
       <c r="Q174" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="R174" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S174" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="T174" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="U174" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V174" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="175" spans="1:22">
@@ -13006,22 +13813,22 @@
         <v>922028.9900000001</v>
       </c>
       <c r="Q175" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="R175" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S175" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="T175" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="U175" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="V175" t="s">
-        <v>679</v>
+        <v>719</v>
       </c>
     </row>
     <row r="176" spans="1:22">
@@ -13074,16 +13881,22 @@
         <v>353581.14</v>
       </c>
       <c r="Q176" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="R176" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S176" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="T176" t="s">
+        <v>609</v>
       </c>
       <c r="U176" t="s">
-        <v>649</v>
+        <v>673</v>
+      </c>
+      <c r="V176" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="177" spans="1:22">
@@ -13136,19 +13949,22 @@
         <v>794035.05</v>
       </c>
       <c r="Q177" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R177" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S177" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T177" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="U177" t="s">
-        <v>649</v>
+        <v>673</v>
+      </c>
+      <c r="V177" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="178" spans="1:22">
@@ -13201,22 +14017,22 @@
         <v>0</v>
       </c>
       <c r="Q178" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="R178" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S178" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T178" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="U178" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="V178" t="s">
-        <v>680</v>
+        <v>722</v>
       </c>
     </row>
     <row r="179" spans="1:22">
@@ -13269,19 +14085,22 @@
         <v>0</v>
       </c>
       <c r="Q179" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="R179" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S179" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T179" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="U179" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V179" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="180" spans="1:22">
@@ -13334,19 +14153,22 @@
         <v>0</v>
       </c>
       <c r="Q180" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="R180" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S180" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T180" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="U180" t="s">
-        <v>650</v>
+        <v>668</v>
+      </c>
+      <c r="V180" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="181" spans="1:22">
@@ -13399,22 +14221,22 @@
         <v>1258508.73</v>
       </c>
       <c r="Q181" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="R181" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S181" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T181" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="U181" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="V181" t="s">
-        <v>681</v>
+        <v>724</v>
       </c>
     </row>
     <row r="182" spans="1:22">
@@ -13467,22 +14289,22 @@
         <v>320687.59</v>
       </c>
       <c r="Q182" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="R182" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S182" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T182" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="U182" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="V182" t="s">
-        <v>682</v>
+        <v>725</v>
       </c>
     </row>
     <row r="183" spans="1:22">
@@ -13535,19 +14357,22 @@
         <v>0</v>
       </c>
       <c r="Q183" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="R183" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S183" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T183" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="U183" t="s">
-        <v>660</v>
+        <v>680</v>
+      </c>
+      <c r="V183" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="184" spans="1:22">
@@ -13600,19 +14425,22 @@
         <v>0</v>
       </c>
       <c r="Q184" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R184" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S184" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T184" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="U184" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V184" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="185" spans="1:22">
@@ -13665,19 +14493,22 @@
         <v>0</v>
       </c>
       <c r="Q185" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="R185" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S185" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T185" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="U185" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V185" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="186" spans="1:22">
@@ -13730,16 +14561,22 @@
         <v>341243.68</v>
       </c>
       <c r="Q186" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="R186" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S186" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="T186" t="s">
+        <v>619</v>
       </c>
       <c r="U186" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V186" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="187" spans="1:22">
@@ -13792,19 +14629,22 @@
         <v>0</v>
       </c>
       <c r="Q187" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="R187" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S187" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T187" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="U187" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V187" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="188" spans="1:22">
@@ -13857,16 +14697,22 @@
         <v>0</v>
       </c>
       <c r="Q188" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="R188" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S188" t="s">
-        <v>474</v>
+        <v>476</v>
+      </c>
+      <c r="T188" t="s">
+        <v>621</v>
       </c>
       <c r="U188" t="s">
-        <v>649</v>
+        <v>673</v>
+      </c>
+      <c r="V188" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="189" spans="1:22">
@@ -13919,16 +14765,22 @@
         <v>0</v>
       </c>
       <c r="Q189" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="R189" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S189" t="s">
-        <v>483</v>
+        <v>485</v>
+      </c>
+      <c r="T189" t="s">
+        <v>622</v>
       </c>
       <c r="U189" t="s">
-        <v>649</v>
+        <v>673</v>
+      </c>
+      <c r="V189" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="190" spans="1:22">
@@ -13981,19 +14833,22 @@
         <v>0</v>
       </c>
       <c r="Q190" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="R190" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S190" t="s">
-        <v>483</v>
+        <v>485</v>
+      </c>
+      <c r="T190" t="s">
+        <v>623</v>
       </c>
       <c r="U190" t="s">
-        <v>661</v>
+        <v>681</v>
       </c>
       <c r="V190" t="s">
-        <v>683</v>
+        <v>729</v>
       </c>
     </row>
     <row r="191" spans="1:22">
@@ -14046,16 +14901,22 @@
         <v>0</v>
       </c>
       <c r="Q191" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="R191" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S191" t="s">
-        <v>483</v>
+        <v>485</v>
+      </c>
+      <c r="T191" t="s">
+        <v>624</v>
       </c>
       <c r="U191" t="s">
-        <v>656</v>
+        <v>675</v>
+      </c>
+      <c r="V191" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="192" spans="1:22">
@@ -14108,19 +14969,22 @@
         <v>36177.38</v>
       </c>
       <c r="Q192" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="R192" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S192" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T192" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="U192" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V192" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="193" spans="1:22">
@@ -14173,19 +15037,22 @@
         <v>28440.62</v>
       </c>
       <c r="Q193" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="R193" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S193" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T193" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="U193" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V193" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="194" spans="1:22">
@@ -14232,19 +15099,22 @@
         <v>41742.55</v>
       </c>
       <c r="Q194" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="R194" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S194" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="T194" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="U194" t="s">
-        <v>651</v>
+        <v>669</v>
+      </c>
+      <c r="V194" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="195" spans="1:22">
@@ -14297,19 +15167,22 @@
         <v>0</v>
       </c>
       <c r="Q195" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="R195" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S195" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T195" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="U195" t="s">
-        <v>649</v>
+        <v>673</v>
+      </c>
+      <c r="V195" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="196" spans="1:22">
@@ -14362,19 +15235,22 @@
         <v>254175.94</v>
       </c>
       <c r="Q196" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="R196" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S196" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T196" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="U196" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V196" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="197" spans="1:22">
@@ -14427,16 +15303,22 @@
         <v>0</v>
       </c>
       <c r="Q197" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R197" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S197" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="T197" t="s">
+        <v>630</v>
       </c>
       <c r="U197" t="s">
-        <v>649</v>
+        <v>673</v>
+      </c>
+      <c r="V197" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="198" spans="1:22">
@@ -14489,19 +15371,22 @@
         <v>0</v>
       </c>
       <c r="Q198" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="R198" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S198" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T198" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="U198" t="s">
-        <v>656</v>
+        <v>675</v>
+      </c>
+      <c r="V198" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="199" spans="1:22">
@@ -14554,16 +15439,22 @@
         <v>0</v>
       </c>
       <c r="Q199" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R199" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S199" t="s">
-        <v>474</v>
+        <v>476</v>
+      </c>
+      <c r="T199" t="s">
+        <v>632</v>
       </c>
       <c r="U199" t="s">
-        <v>656</v>
+        <v>675</v>
+      </c>
+      <c r="V199" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="200" spans="1:22">
@@ -14616,16 +15507,22 @@
         <v>0</v>
       </c>
       <c r="Q200" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="R200" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S200" t="s">
-        <v>474</v>
+        <v>476</v>
+      </c>
+      <c r="T200" t="s">
+        <v>633</v>
       </c>
       <c r="U200" t="s">
-        <v>649</v>
+        <v>666</v>
+      </c>
+      <c r="V200" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="201" spans="1:22">
@@ -14678,19 +15575,22 @@
         <v>0</v>
       </c>
       <c r="Q201" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="R201" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S201" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T201" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="U201" t="s">
-        <v>662</v>
+        <v>682</v>
+      </c>
+      <c r="V201" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="202" spans="1:22">
@@ -14743,22 +15643,22 @@
         <v>0</v>
       </c>
       <c r="Q202" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="R202" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S202" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="T202" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="U202" t="s">
-        <v>662</v>
+        <v>682</v>
       </c>
       <c r="V202" t="s">
-        <v>684</v>
+        <v>738</v>
       </c>
     </row>
     <row r="203" spans="1:22">
@@ -14811,19 +15711,22 @@
         <v>0</v>
       </c>
       <c r="Q203" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="R203" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S203" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="T203" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="U203" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V203" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="204" spans="1:22">
@@ -14876,19 +15779,22 @@
         <v>112984.85</v>
       </c>
       <c r="Q204" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R204" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S204" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T204" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="U204" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V204" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="205" spans="1:22">
@@ -14941,19 +15847,22 @@
         <v>0</v>
       </c>
       <c r="Q205" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R205" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S205" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T205" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="U205" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V205" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="206" spans="1:22">
@@ -15006,16 +15915,22 @@
         <v>0</v>
       </c>
       <c r="Q206" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R206" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S206" t="s">
-        <v>474</v>
+        <v>476</v>
+      </c>
+      <c r="T206" t="s">
+        <v>639</v>
       </c>
       <c r="U206" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V206" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="207" spans="1:22">
@@ -15068,19 +15983,22 @@
         <v>343029.37</v>
       </c>
       <c r="Q207" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="R207" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S207" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="T207" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="U207" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V207" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="208" spans="1:22">
@@ -15133,22 +16051,25 @@
         <v>0</v>
       </c>
       <c r="Q208" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="R208" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S208" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T208" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="U208" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="209" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V208" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22">
       <c r="A209" s="1" t="s">
         <v>228</v>
       </c>
@@ -15198,22 +16119,25 @@
         <v>154635.52</v>
       </c>
       <c r="Q209" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="R209" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S209" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T209" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="U209" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="210" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V209" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22">
       <c r="A210" s="1" t="s">
         <v>229</v>
       </c>
@@ -15263,22 +16187,25 @@
         <v>71741.21999999997</v>
       </c>
       <c r="Q210" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="R210" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S210" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T210" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="U210" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="211" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V210" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22">
       <c r="A211" s="1" t="s">
         <v>230</v>
       </c>
@@ -15328,22 +16255,25 @@
         <v>182240.62</v>
       </c>
       <c r="Q211" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="R211" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S211" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T211" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="U211" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="212" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V211" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22">
       <c r="A212" s="1" t="s">
         <v>231</v>
       </c>
@@ -15393,22 +16323,25 @@
         <v>0</v>
       </c>
       <c r="Q212" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="R212" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S212" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T212" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="U212" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="213" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V212" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22">
       <c r="A213" s="1" t="s">
         <v>232</v>
       </c>
@@ -15458,22 +16391,25 @@
         <v>1290967.68</v>
       </c>
       <c r="Q213" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="R213" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S213" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T213" t="s">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="U213" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="214" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V213" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22">
       <c r="A214" s="1" t="s">
         <v>233</v>
       </c>
@@ -15523,22 +16459,25 @@
         <v>1218687.59</v>
       </c>
       <c r="Q214" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R214" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S214" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T214" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="U214" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="215" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V214" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22">
       <c r="A215" s="1" t="s">
         <v>234</v>
       </c>
@@ -15588,19 +16527,25 @@
         <v>0</v>
       </c>
       <c r="Q215" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R215" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S215" t="s">
-        <v>478</v>
+        <v>480</v>
+      </c>
+      <c r="T215" t="s">
+        <v>648</v>
       </c>
       <c r="U215" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="216" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V215" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22">
       <c r="A216" s="1" t="s">
         <v>235</v>
       </c>
@@ -15650,22 +16595,25 @@
         <v>166160.04</v>
       </c>
       <c r="Q216" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R216" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S216" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T216" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="U216" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="217" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V216" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22">
       <c r="A217" s="1" t="s">
         <v>236</v>
       </c>
@@ -15715,22 +16663,25 @@
         <v>0</v>
       </c>
       <c r="Q217" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R217" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S217" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T217" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="U217" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="218" spans="1:21">
+        <v>669</v>
+      </c>
+      <c r="V217" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22">
       <c r="A218" s="1" t="s">
         <v>237</v>
       </c>
@@ -15780,19 +16731,25 @@
         <v>0</v>
       </c>
       <c r="Q218" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R218" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S218" t="s">
-        <v>490</v>
+        <v>492</v>
+      </c>
+      <c r="T218" t="s">
+        <v>651</v>
       </c>
       <c r="U218" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="219" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V218" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22">
       <c r="A219" s="1" t="s">
         <v>238</v>
       </c>
@@ -15842,19 +16799,25 @@
         <v>228140.54</v>
       </c>
       <c r="Q219" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="R219" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S219" t="s">
-        <v>483</v>
+        <v>485</v>
+      </c>
+      <c r="T219" t="s">
+        <v>652</v>
       </c>
       <c r="U219" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="220" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V219" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22">
       <c r="A220" s="1" t="s">
         <v>239</v>
       </c>
@@ -15904,22 +16867,25 @@
         <v>0</v>
       </c>
       <c r="Q220" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="R220" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S220" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T220" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="U220" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="221" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V220" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22">
       <c r="A221" s="1" t="s">
         <v>240</v>
       </c>
@@ -15969,22 +16935,25 @@
         <v>210786.9</v>
       </c>
       <c r="Q221" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="R221" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S221" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T221" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="U221" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="222" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V221" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22">
       <c r="A222" s="1" t="s">
         <v>241</v>
       </c>
@@ -16034,22 +17003,25 @@
         <v>874838.8800000001</v>
       </c>
       <c r="Q222" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="R222" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S222" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T222" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="U222" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="223" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V222" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22">
       <c r="A223" s="1" t="s">
         <v>242</v>
       </c>
@@ -16099,22 +17071,25 @@
         <v>774236.1200000001</v>
       </c>
       <c r="Q223" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="R223" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S223" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T223" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="U223" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="224" spans="1:21">
+        <v>475</v>
+      </c>
+      <c r="V223" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22">
       <c r="A224" s="1" t="s">
         <v>243</v>
       </c>
@@ -16164,19 +17139,22 @@
         <v>0</v>
       </c>
       <c r="Q224" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="R224" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S224" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T224" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="U224" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V224" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="225" spans="1:22">
@@ -16229,19 +17207,22 @@
         <v>0</v>
       </c>
       <c r="Q225" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="R225" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S225" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="T225" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="U225" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V225" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="226" spans="1:22">
@@ -16294,19 +17275,22 @@
         <v>92221.27999999997</v>
       </c>
       <c r="Q226" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="R226" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S226" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T226" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
       <c r="U226" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V226" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="227" spans="1:22">
@@ -16353,22 +17337,22 @@
         <v>70082.98</v>
       </c>
       <c r="Q227" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="R227" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S227" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T227" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="U227" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="V227" t="s">
-        <v>685</v>
+        <v>740</v>
       </c>
     </row>
     <row r="228" spans="1:22">
@@ -16415,19 +17399,22 @@
         <v>0</v>
       </c>
       <c r="Q228" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="R228" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S228" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="T228" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="U228" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V228" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="229" spans="1:22">
@@ -16474,19 +17461,22 @@
         <v>0</v>
       </c>
       <c r="Q229" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="R229" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S229" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T229" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
       <c r="U229" t="s">
-        <v>651</v>
+        <v>669</v>
+      </c>
+      <c r="V229" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="230" spans="1:22">
@@ -16533,19 +17523,22 @@
         <v>0</v>
       </c>
       <c r="Q230" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="R230" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S230" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="T230" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
       <c r="U230" t="s">
-        <v>646</v>
+        <v>475</v>
+      </c>
+      <c r="V230" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="231" spans="1:22">
@@ -16592,19 +17585,22 @@
         <v>30133.14</v>
       </c>
       <c r="Q231" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="R231" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S231" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="T231" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="U231" t="s">
-        <v>650</v>
+        <v>668</v>
+      </c>
+      <c r="V231" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="232" spans="1:22">
@@ -16651,19 +17647,22 @@
         <v>0</v>
       </c>
       <c r="Q232" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="R232" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S232" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="T232" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="U232" t="s">
-        <v>656</v>
+        <v>675</v>
+      </c>
+      <c r="V232" t="s">
+        <v>743</v>
       </c>
     </row>
   </sheetData>
